--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>613845.9900362229</v>
+        <v>627770.9364639111</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16799231.59170662</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843294</v>
+        <v>2228144.448830837</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6534430.717958435</v>
+        <v>7087743.743814494</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -668,7 +670,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>54.55340531488891</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>182.3586572223302</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.97358346682158</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>61.08641542222817</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>298.5429268771102</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>219.3633077340878</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1133,10 +1135,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>257.2926832743553</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>105.6645478342092</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>10.04027365720005</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>23.21710985617906</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>139.1368521158681</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170507</v>
+        <v>24.34318456170457</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>148.3555818371252</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>228.9814794714993</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
-        <v>122.9742767430581</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -2011,10 +2013,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2132,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2245,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>47.61404849749822</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>130.3463188443663</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>152.5168019860612</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>141.3509401177971</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>156.3113891517331</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3749,10 +3751,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>119.7254844869146</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>23.62973133530953</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3980,22 +3982,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>148.3555818371252</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>168.5289438222625</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1362.988485589449</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="C2" t="n">
-        <v>924.8460127728722</v>
+        <v>978.1901960089081</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9362279473168</v>
+        <v>542.2804111833525</v>
       </c>
       <c r="E2" t="n">
-        <v>55.16148310561195</v>
+        <v>108.5056663416477</v>
       </c>
       <c r="F2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M2" t="n">
-        <v>54.74469373275195</v>
+        <v>518.386598053036</v>
       </c>
       <c r="N2" t="n">
-        <v>732.2102786755574</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O2" t="n">
-        <v>1409.675863618363</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2553.034022776658</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2190.417072710485</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2190.417072710485</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>1771.274609289796</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y2" t="n">
-        <v>1362.988485589449</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N3" t="n">
-        <v>499.7799316366797</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O3" t="n">
-        <v>499.7799316366797</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P3" t="n">
-        <v>1177.245516579485</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1199.63323734668</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>1027.071525829905</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>861.1935330314275</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>691.4355292821647</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>514.7284752439209</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>349.1372002697486</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2154.361157596755</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2501.868051567097</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2715.81686534297</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2556.575496640966</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2310.696050219422</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U4" t="n">
-        <v>2032.263049472527</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V4" t="n">
-        <v>1745.307541342957</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W4" t="n">
-        <v>1473.281136929249</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1227.889382262661</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1227.889382262661</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>920.7545961401208</v>
+        <v>2368.005130054095</v>
       </c>
       <c r="C5" t="n">
-        <v>482.6121233235442</v>
+        <v>2066.446618057014</v>
       </c>
       <c r="D5" t="n">
-        <v>482.6121233235442</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="E5" t="n">
-        <v>482.6121233235442</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>367.4968274222251</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>78.3666728654414</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="M5" t="n">
-        <v>54.74469373275195</v>
+        <v>424.271832642633</v>
       </c>
       <c r="N5" t="n">
-        <v>666.6506660403358</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084022</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.841323917418</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876013</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812907</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812907</v>
       </c>
       <c r="U5" t="n">
-        <v>2515.655587916297</v>
+        <v>3554.619998129924</v>
       </c>
       <c r="V5" t="n">
-        <v>2153.038637850123</v>
+        <v>3192.003048063751</v>
       </c>
       <c r="W5" t="n">
-        <v>1748.183183261157</v>
+        <v>2787.147593474784</v>
       </c>
       <c r="X5" t="n">
-        <v>1329.040719840467</v>
+        <v>2368.005130054095</v>
       </c>
       <c r="Y5" t="n">
-        <v>920.7545961401208</v>
+        <v>2368.005130054095</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="M6" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="N6" t="n">
-        <v>54.74469373275195</v>
+        <v>776.5598367506957</v>
       </c>
       <c r="O6" t="n">
-        <v>732.2102786755574</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>764.2385311503645</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C7" t="n">
-        <v>591.6768196335894</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D7" t="n">
-        <v>425.7988268351121</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E7" t="n">
-        <v>256.0408230858494</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F7" t="n">
-        <v>79.33376904760556</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S7" t="n">
-        <v>2512.162934933549</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T7" t="n">
-        <v>2266.283488512004</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U7" t="n">
-        <v>1987.850487765109</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V7" t="n">
-        <v>1700.894979635539</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W7" t="n">
-        <v>1428.868575221831</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X7" t="n">
-        <v>1183.476820555243</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y7" t="n">
-        <v>956.0571498693516</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>716.0341243765137</v>
+        <v>1313.352208741879</v>
       </c>
       <c r="C8" t="n">
-        <v>456.1425251094881</v>
+        <v>875.2097359253025</v>
       </c>
       <c r="D8" t="n">
-        <v>456.1425251094881</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="E8" t="n">
-        <v>456.1425251094881</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="F8" t="n">
-        <v>456.1425251094881</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>367.0800380493652</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="L8" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="M8" t="n">
-        <v>54.74469373275195</v>
+        <v>424.271832642633</v>
       </c>
       <c r="N8" t="n">
-        <v>666.6506660403358</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084022</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.841323917418</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876013</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812907</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3593.775073685946</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3334.552771002963</v>
       </c>
       <c r="V8" t="n">
-        <v>2374.617736571424</v>
+        <v>2971.935820936789</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.762281982458</v>
+        <v>2567.080366347823</v>
       </c>
       <c r="X8" t="n">
-        <v>1550.619818561768</v>
+        <v>2147.937902927134</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.333694861421</v>
+        <v>1739.651779226787</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="M9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="N9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="O9" t="n">
-        <v>732.2102786755574</v>
+        <v>921.4664784921923</v>
       </c>
       <c r="P9" t="n">
-        <v>1409.675863618363</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.8207098557364</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C10" t="n">
-        <v>732.679019292908</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D10" t="n">
-        <v>566.8010264944307</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E10" t="n">
-        <v>397.0430227451681</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F10" t="n">
-        <v>220.3359687069243</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G10" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.432666470481</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.477158340911</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.450753927203</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.058999260615</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.6393285747235</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2191.836957184118</v>
+        <v>2215.458936316807</v>
       </c>
       <c r="C11" t="n">
-        <v>1753.694484367541</v>
+        <v>1777.31646350023</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.784699541985</v>
+        <v>1341.406678674675</v>
       </c>
       <c r="E11" t="n">
-        <v>884.0099547002803</v>
+        <v>907.6319338329697</v>
       </c>
       <c r="F11" t="n">
-        <v>456.1425251094881</v>
+        <v>479.7645042421775</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>78.3666728654414</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>78.3666728654414</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="L11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="M11" t="n">
-        <v>54.74469373275195</v>
+        <v>424.271832642633</v>
       </c>
       <c r="N11" t="n">
-        <v>732.2102786755574</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O11" t="n">
-        <v>1409.675863618363</v>
+        <v>2353.531449084022</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.841323917418</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876013</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="V11" t="n">
-        <v>2737.234686637598</v>
+        <v>3874.042548511718</v>
       </c>
       <c r="W11" t="n">
-        <v>2332.379232048631</v>
+        <v>3469.187093922751</v>
       </c>
       <c r="X11" t="n">
-        <v>2191.836957184118</v>
+        <v>3050.044630502061</v>
       </c>
       <c r="Y11" t="n">
-        <v>2191.836957184118</v>
+        <v>2641.758506801715</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="L12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="M12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="N12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="O12" t="n">
-        <v>382.60715354234</v>
+        <v>921.4664784921923</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>764.2385311503645</v>
+        <v>787.4437209101934</v>
       </c>
       <c r="C13" t="n">
-        <v>591.6768196335894</v>
+        <v>614.8820093934183</v>
       </c>
       <c r="D13" t="n">
-        <v>425.7988268351121</v>
+        <v>449.004016594941</v>
       </c>
       <c r="E13" t="n">
-        <v>256.0408230858494</v>
+        <v>279.2460128456783</v>
       </c>
       <c r="F13" t="n">
-        <v>79.33376904760556</v>
+        <v>102.5389588074345</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.162934933549</v>
+        <v>2535.368124693377</v>
       </c>
       <c r="T13" t="n">
-        <v>2266.283488512004</v>
+        <v>2289.488678271833</v>
       </c>
       <c r="U13" t="n">
-        <v>1987.850487765109</v>
+        <v>2011.055677524938</v>
       </c>
       <c r="V13" t="n">
-        <v>1700.894979635539</v>
+        <v>1724.100169395368</v>
       </c>
       <c r="W13" t="n">
-        <v>1428.868575221831</v>
+        <v>1452.07376498166</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.476820555243</v>
+        <v>1206.682010315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.0571498693516</v>
+        <v>979.2623396291806</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1078.651074442687</v>
+        <v>1617.071309685004</v>
       </c>
       <c r="C14" t="n">
-        <v>640.5086016261107</v>
+        <v>1178.928836868427</v>
       </c>
       <c r="D14" t="n">
-        <v>204.5988168005552</v>
+        <v>743.0190520428714</v>
       </c>
       <c r="E14" t="n">
-        <v>54.74469373275195</v>
+        <v>309.2443072011666</v>
       </c>
       <c r="F14" t="n">
-        <v>54.74469373275195</v>
+        <v>309.2443072011666</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>309.2443072011666</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="L14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="M14" t="n">
-        <v>54.74469373275195</v>
+        <v>424.271832642633</v>
       </c>
       <c r="N14" t="n">
-        <v>666.6506660403358</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084022</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.841323917418</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876013</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.49417462907</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>3638.271871946087</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.234686637598</v>
+        <v>3275.654921879914</v>
       </c>
       <c r="W14" t="n">
-        <v>2332.379232048631</v>
+        <v>2870.799467290947</v>
       </c>
       <c r="X14" t="n">
-        <v>1913.236768627942</v>
+        <v>2451.657003870258</v>
       </c>
       <c r="Y14" t="n">
-        <v>1504.950644927595</v>
+        <v>2043.370880169911</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K15" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="L15" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="M15" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="N15" t="n">
-        <v>382.60715354234</v>
+        <v>1042.579691713276</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.072738485145</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1045.142905119309</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C16" t="n">
-        <v>872.5811936025335</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D16" t="n">
-        <v>706.7032008040562</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E16" t="n">
-        <v>536.9451970547935</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F16" t="n">
-        <v>360.2381430165498</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G16" t="n">
-        <v>194.6468680423774</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T16" t="n">
-        <v>2547.187862480948</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U16" t="n">
-        <v>2268.754861734053</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V16" t="n">
-        <v>1981.799353604483</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W16" t="n">
-        <v>1709.772949190775</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X16" t="n">
-        <v>1464.381194524188</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y16" t="n">
-        <v>1236.961523838296</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="17">
@@ -5513,22 +5515,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>205.2000859692949</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1039.550377927473</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>2114.610344180332</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>3271.658179390883</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5601,19 +5603,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,31 +5755,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5844,13 +5846,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.9010479080736</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>750.3393363912985</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>584.4613435928212</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2670.825451691258</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2424.946005269713</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2146.513004522818</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1859.557496393248</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.53109197954</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1342.139337312952</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1114.719666627061</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,49 +5992,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>4648.527086152673</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6214,31 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>533.9380463464488</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1368.288338304627</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2443.348304557486</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2443.348304557486</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
         <v>3569.079287993933</v>
@@ -6315,10 +6317,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
         <v>1765.500601749588</v>
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>388.1086717343196</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>3879.214741978675</v>
       </c>
       <c r="N30" t="n">
-        <v>1300.985674363279</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>496.4142387799021</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
         <v>496.4142387799021</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4634.82430489918</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4634.82430489918</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6792,13 +6794,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1656.801388721157</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,49 +6940,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>388.1086717343214</v>
+        <v>356.7918199602167</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.168637987181</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7023,19 +7025,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1656.801388721157</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1003.573296407379</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>831.0115848906036</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>831.0115848906036</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7162,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7263,13 +7265,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.088111831086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>1336.088111831086</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P39" t="n">
-        <v>1336.088111831086</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
         <v>1765.500601749588</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1483.506529031654</v>
+        <v>2215.042146943947</v>
       </c>
       <c r="C41" t="n">
-        <v>1045.364056215078</v>
+        <v>1776.89967412737</v>
       </c>
       <c r="D41" t="n">
-        <v>609.4542713895221</v>
+        <v>1340.989889301815</v>
       </c>
       <c r="E41" t="n">
-        <v>175.6795265478173</v>
+        <v>907.2151444601097</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>479.3477148693175</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="L41" t="n">
-        <v>732.2102786755574</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="M41" t="n">
-        <v>732.2102786755574</v>
+        <v>424.2718326426323</v>
       </c>
       <c r="N41" t="n">
-        <v>1409.675863618363</v>
+        <v>1388.901640863327</v>
       </c>
       <c r="O41" t="n">
-        <v>1409.675863618363</v>
+        <v>2353.531449084021</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.841323917417</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876012</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3873.625759138858</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3873.625759138858</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3873.625759138858</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3873.625759138858</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.234686637598</v>
+        <v>3468.770304549891</v>
       </c>
       <c r="X41" t="n">
-        <v>2318.092223216909</v>
+        <v>3049.627841129201</v>
       </c>
       <c r="Y41" t="n">
-        <v>1909.806099516562</v>
+        <v>2641.341717428855</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838741</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205164</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670697</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940234</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>205.070625410185</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I42" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J42" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="K42" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="L42" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="M42" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="N42" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="O42" t="n">
-        <v>499.7799316366797</v>
+        <v>263.5547617657768</v>
       </c>
       <c r="P42" t="n">
-        <v>1177.245516579485</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q42" t="n">
-        <v>1717.984455211561</v>
+        <v>1624.01686687705</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812342</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455365</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844165</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636373</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>905.2407308096831</v>
+        <v>928.4459205695126</v>
       </c>
       <c r="C43" t="n">
-        <v>732.679019292908</v>
+        <v>755.8842090527376</v>
       </c>
       <c r="D43" t="n">
-        <v>566.8010264944307</v>
+        <v>590.0062162542603</v>
       </c>
       <c r="E43" t="n">
-        <v>397.0430227451681</v>
+        <v>420.2482125049975</v>
       </c>
       <c r="F43" t="n">
-        <v>220.3359687069243</v>
+        <v>243.5411584667537</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S43" t="n">
-        <v>2653.165134592867</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T43" t="n">
-        <v>2407.285688171322</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U43" t="n">
-        <v>2128.852687424428</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V43" t="n">
-        <v>1841.897179294858</v>
+        <v>1865.102369054687</v>
       </c>
       <c r="W43" t="n">
-        <v>1569.87077488115</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X43" t="n">
-        <v>1324.479020214562</v>
+        <v>1347.684209974391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.05934952867</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1078.651074442687</v>
+        <v>2068.679306048035</v>
       </c>
       <c r="C44" t="n">
-        <v>640.5086016261107</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="D44" t="n">
-        <v>204.5988168005552</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="E44" t="n">
-        <v>54.74469373275195</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="F44" t="n">
-        <v>54.74469373275195</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>367.4968274222251</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>78.36667286544139</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="L44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="M44" t="n">
-        <v>54.74469373275195</v>
+        <v>424.2718326426323</v>
       </c>
       <c r="N44" t="n">
-        <v>666.6506660403358</v>
+        <v>1388.901640863327</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084021</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.841323917417</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876012</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629069</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3727.262918242945</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>3727.262918242945</v>
       </c>
       <c r="W44" t="n">
-        <v>2332.379232048631</v>
+        <v>3322.407463653979</v>
       </c>
       <c r="X44" t="n">
-        <v>1913.236768627942</v>
+        <v>2903.265000233289</v>
       </c>
       <c r="Y44" t="n">
-        <v>1504.950644927595</v>
+        <v>2494.978876532943</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838741</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205164</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670697</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940234</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>205.070625410185</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I45" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J45" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="K45" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="L45" t="n">
-        <v>54.74469373275195</v>
+        <v>104.013556653039</v>
       </c>
       <c r="M45" t="n">
-        <v>245.8805072316101</v>
+        <v>104.013556653039</v>
       </c>
       <c r="N45" t="n">
-        <v>923.3460921744155</v>
+        <v>776.5598367506957</v>
       </c>
       <c r="O45" t="n">
-        <v>1600.811677117221</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="P45" t="n">
-        <v>1600.811677117221</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812342</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455365</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844165</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636373</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2385311503645</v>
+        <v>928.4459205695126</v>
       </c>
       <c r="C46" t="n">
-        <v>591.6768196335894</v>
+        <v>755.8842090527376</v>
       </c>
       <c r="D46" t="n">
-        <v>425.7988268351121</v>
+        <v>590.0062162542603</v>
       </c>
       <c r="E46" t="n">
-        <v>256.0408230858494</v>
+        <v>420.2482125049975</v>
       </c>
       <c r="F46" t="n">
-        <v>79.33376904760556</v>
+        <v>243.5411584667537</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258139</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.162934933549</v>
+        <v>2535.368124693377</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.283488512004</v>
+        <v>2289.488678271833</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.850487765109</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.894979635539</v>
+        <v>1865.102369054687</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.868575221831</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.476820555243</v>
+        <v>1347.684209974391</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0571498693516</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7987,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="N2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>618.0868407147309</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8222,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>349.8201506566178</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>705.6666194526407</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="P6" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>349.8201506566178</v>
       </c>
       <c r="N8" t="n">
-        <v>618.0868407147311</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593995</v>
+        <v>852.0369646460716</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593996</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
-        <v>193.0664782816748</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>349.8201506566178</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593996</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P11" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>331.1742018278667</v>
+        <v>852.0369646460716</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>349.8201506566178</v>
       </c>
       <c r="N14" t="n">
-        <v>618.0868407147311</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>331.1742018278667</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="O15" t="n">
-        <v>684.3086716593995</v>
+        <v>705.6666194526408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>103.9790360591064</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9176,10 +9178,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9249,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9650,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599073</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9872,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>436.0375818946154</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9963,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10112,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>288.735183296505</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10197,13 +10199,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>483.0481905452534</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,16 +10588,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>288.7351832965068</v>
+        <v>257.1019996863001</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10671,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10911,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11063,19 +11065,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>349.8201506566172</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593996</v>
+        <v>974.3735436572673</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P41" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>449.5305433373007</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P42" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,16 +11305,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>349.8201506566172</v>
       </c>
       <c r="N44" t="n">
-        <v>618.0868407147311</v>
+        <v>974.3735436572673</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11382,13 +11384,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>193.0664782816749</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>684.3086716593995</v>
+        <v>679.3396768663199</v>
       </c>
       <c r="O45" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572673</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,7 +22558,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>369.0353499799954</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22565,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,10 +22603,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>74.27142243382309</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>208.2197249473432</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22784,25 +22786,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>135.2181212113007</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>37.26677192206543</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22954,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22990,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23021,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>176.4683648140556</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>325.8861391430906</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23036,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23179,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>335.7736707093327</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>275.8141866706143</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627255</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>281.0814155561625</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23510,7 +23512,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>57.25737353971661</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23549,10 +23551,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>110.0349065174851</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>37.71410486740379</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>37.383630545736</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>22.86827275269542</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>11.74903456003702</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>303.8632708079697</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>59.18562374269183</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -25688,7 +25690,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>281.0814155561625</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>88.10113583389079</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>446392.603747998</v>
+        <v>439648.5969952767</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>446392.6037479981</v>
+        <v>562878.3587411983</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>446392.6037479981</v>
+        <v>562878.3587411983</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>446392.603747998</v>
+        <v>562878.3587411981</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>446392.6037479981</v>
+        <v>562878.3587411983</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>684914.8593785581</v>
+        <v>684914.859378558</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>446392.6037479981</v>
+        <v>562878.3587411981</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>446392.6037479981</v>
+        <v>562878.3587411982</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154520.5166819993</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="C2" t="n">
-        <v>154520.5166819993</v>
+        <v>194842.5087950302</v>
       </c>
       <c r="D2" t="n">
-        <v>154520.5166819993</v>
+        <v>194842.5087950302</v>
       </c>
       <c r="E2" t="n">
-        <v>154520.5166819993</v>
+        <v>194842.5087950302</v>
       </c>
       <c r="F2" t="n">
-        <v>154520.5166819993</v>
+        <v>194842.5087950302</v>
       </c>
       <c r="G2" t="n">
         <v>237085.9128618086</v>
       </c>
       <c r="H2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="I2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="J2" t="n">
         <v>237085.9128618085</v>
@@ -26344,16 +26346,16 @@
         <v>237085.9128618085</v>
       </c>
       <c r="M2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="N2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="O2" t="n">
-        <v>154520.5166819993</v>
+        <v>194842.5087950301</v>
       </c>
       <c r="P2" t="n">
-        <v>154520.5166819993</v>
+        <v>194842.5087950302</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>99136.93345537226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>83290.85735690576</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>78975.51648973268</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>525.526363575143</v>
+        <v>517.5868204130782</v>
       </c>
       <c r="C4" t="n">
-        <v>525.526363575143</v>
+        <v>662.6620031800503</v>
       </c>
       <c r="D4" t="n">
-        <v>525.526363575143</v>
+        <v>662.6620031800504</v>
       </c>
       <c r="E4" t="n">
-        <v>525.526363575143</v>
+        <v>662.6620031800504</v>
       </c>
       <c r="F4" t="n">
-        <v>525.526363575143</v>
+        <v>662.6620031800504</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>525.5263635751431</v>
+        <v>662.6620031800503</v>
       </c>
       <c r="P4" t="n">
-        <v>525.526363575143</v>
+        <v>662.6620031800502</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.51145436187</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.51145436187</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436186</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436186</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436185</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436185</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-150566.1518909803</v>
+        <v>-146243.7571601583</v>
       </c>
       <c r="C6" t="n">
-        <v>78761.42308153273</v>
+        <v>2173.401882116028</v>
       </c>
       <c r="D6" t="n">
-        <v>78761.4230815327</v>
+        <v>101310.3353374883</v>
       </c>
       <c r="E6" t="n">
-        <v>112389.0230815327</v>
+        <v>134937.9353374883</v>
       </c>
       <c r="F6" t="n">
-        <v>112389.0230815327</v>
+        <v>134937.9353374883</v>
       </c>
       <c r="G6" t="n">
-        <v>-4231.945933208015</v>
+        <v>75270.48450832767</v>
       </c>
       <c r="H6" t="n">
         <v>158561.3418652334</v>
@@ -26543,25 +26545,25 @@
         <v>158561.3418652334</v>
       </c>
       <c r="J6" t="n">
-        <v>-20483.91622241852</v>
+        <v>-16090.00685247275</v>
       </c>
       <c r="K6" t="n">
-        <v>158561.3418652334</v>
+        <v>79585.82537550075</v>
       </c>
       <c r="L6" t="n">
         <v>158561.3418652334</v>
       </c>
       <c r="M6" t="n">
-        <v>158561.3418652335</v>
+        <v>158561.3418652334</v>
       </c>
       <c r="N6" t="n">
-        <v>158561.3418652335</v>
+        <v>158561.3418652334</v>
       </c>
       <c r="O6" t="n">
-        <v>112389.0230815327</v>
+        <v>134937.9353374882</v>
       </c>
       <c r="P6" t="n">
-        <v>112389.0230815327</v>
+        <v>134937.9353374883</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572673</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572673</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>306.8583370494105</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.8869597274778</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494105</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494105</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.8869597274778</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34705,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="N2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>618.0868407147309</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.908332551295</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>349.8201506566178</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>705.6666194526407</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="P6" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35179,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>349.8201506566178</v>
       </c>
       <c r="N8" t="n">
-        <v>618.0868407147311</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35264,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593995</v>
+        <v>852.0369646460716</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593996</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
-        <v>193.0664782816748</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35416,16 +35418,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>349.8201506566178</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593996</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P11" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>331.1742018278667</v>
+        <v>852.0369646460716</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,16 +35655,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>349.8201506566178</v>
       </c>
       <c r="N14" t="n">
-        <v>618.0868407147311</v>
+        <v>974.3735436572675</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>331.1742018278667</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="O15" t="n">
-        <v>684.3086716593995</v>
+        <v>705.6666194526408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>103.9790360591064</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35896,10 +35898,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599073</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>436.0375818946154</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36683,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>288.735183296505</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37084,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>483.0481905452534</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>288.7351832965068</v>
+        <v>257.1019996863001</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37631,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37783,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>349.8201506566172</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593996</v>
+        <v>974.3735436572673</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P41" t="n">
-        <v>618.0868407147309</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37871,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>449.5305433373007</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P42" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,16 +37943,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>349.8201506566172</v>
       </c>
       <c r="N44" t="n">
-        <v>618.0868407147311</v>
+        <v>974.3735436572673</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>193.0664782816749</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>684.3086716593995</v>
+        <v>679.3396768663199</v>
       </c>
       <c r="O45" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572673</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>627770.9364639111</v>
+        <v>626094.6393672775</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16799231.59170662</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2228144.448830837</v>
+        <v>2305207.638772117</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7087743.743814494</v>
+        <v>7075480.285671931</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>54.55340531488891</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>141.1746717309775</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>163.6395778340022</v>
       </c>
       <c r="W4" t="n">
-        <v>61.08641542222817</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>298.5429268771102</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>220.3408959093975</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -949,22 +949,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1138,22 +1138,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>105.6645478342092</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>301.7309036713944</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1195,13 +1195,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1384,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>319.9768374672412</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>23.21710985617906</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170457</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>228.9814794714993</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>198.9926249238804</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2481,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3463188443663</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.5168019860612</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3754,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>195.1569564646411</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.62973133530953</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>168.5289438222625</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>198.9926249238804</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>136.0564930766999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1416.332668825485</v>
+        <v>1197.605242458808</v>
       </c>
       <c r="C2" t="n">
-        <v>978.1901960089081</v>
+        <v>1197.605242458808</v>
       </c>
       <c r="D2" t="n">
-        <v>542.2804111833525</v>
+        <v>1197.605242458808</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5056663416477</v>
+        <v>763.830497617103</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862857</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862857</v>
+        <v>228.1169872144811</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862857</v>
+        <v>1135.235569298822</v>
       </c>
       <c r="M2" t="n">
-        <v>518.386598053036</v>
+        <v>2042.354151383163</v>
       </c>
       <c r="N2" t="n">
-        <v>1179.226652594814</v>
+        <v>2042.354151383163</v>
       </c>
       <c r="O2" t="n">
-        <v>1840.066707136593</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="P2" t="n">
-        <v>2500.906761678372</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>3218.805804719892</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2856.188854653718</v>
       </c>
       <c r="W2" t="n">
-        <v>2670.060826431428</v>
+        <v>2451.333400064751</v>
       </c>
       <c r="X2" t="n">
-        <v>2250.918363010739</v>
+        <v>2032.190936644062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1842.632239310392</v>
+        <v>1623.904812943716</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>1063.70072307014</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>891.1390115533646</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>725.2610187548873</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596755</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567097</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U4" t="n">
-        <v>2145.748379262989</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V4" t="n">
-        <v>1858.792871133419</v>
+        <v>2000.357171555315</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1728.330767141606</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1482.939012475019</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1255.519341789127</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2368.005130054095</v>
+        <v>1848.456022947104</v>
       </c>
       <c r="C5" t="n">
-        <v>2066.446618057014</v>
+        <v>1848.456022947104</v>
       </c>
       <c r="D5" t="n">
-        <v>1630.536833231458</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E5" t="n">
-        <v>1196.762088389753</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F5" t="n">
-        <v>768.8946587989612</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G5" t="n">
-        <v>367.4968274222251</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H5" t="n">
-        <v>78.3666728654414</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I5" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>77.94988349258141</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K5" t="n">
-        <v>77.94988349258141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L5" t="n">
-        <v>77.94988349258141</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M5" t="n">
-        <v>424.271832642633</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="N5" t="n">
-        <v>1388.901640863328</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="O5" t="n">
-        <v>2353.531449084022</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="P5" t="n">
-        <v>3181.841323917418</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>3728.340109876013</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3813.842300812907</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>3813.842300812907</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U5" t="n">
-        <v>3554.619998129924</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V5" t="n">
-        <v>3192.003048063751</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="W5" t="n">
-        <v>2787.147593474784</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.005130054095</v>
+        <v>2683.041717132358</v>
       </c>
       <c r="Y5" t="n">
-        <v>2368.005130054095</v>
+        <v>2274.755593432012</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>584.1216284838742</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>477.6651673205165</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>382.5748784670698</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>288.4544637940235</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>205.0706254101851</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>119.6855356763689</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>77.94988349258141</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>77.94988349258141</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>77.94988349258141</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L6" t="n">
-        <v>77.94988349258141</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M6" t="n">
-        <v>77.94988349258141</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N6" t="n">
-        <v>776.5598367506957</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O6" t="n">
-        <v>1741.18964497139</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P6" t="n">
-        <v>1741.18964497139</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1741.18964497139</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1172.101498812343</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>986.7787445455367</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>831.9113087844166</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>705.4255295636374</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>928.4459205695127</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C7" t="n">
-        <v>755.8842090527377</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D7" t="n">
-        <v>590.0062162542604</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E7" t="n">
-        <v>420.2482125049976</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F7" t="n">
-        <v>243.5411584667538</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G7" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H7" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>439.2880232284068</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2676.370324352697</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T7" t="n">
-        <v>2430.490877931152</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U7" t="n">
-        <v>2152.057877184257</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V7" t="n">
-        <v>1865.102369054688</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W7" t="n">
-        <v>1593.075964640979</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.684209974392</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y7" t="n">
-        <v>1120.2645392885</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1313.352208741879</v>
+        <v>2114.192423708238</v>
       </c>
       <c r="C8" t="n">
-        <v>875.2097359253025</v>
+        <v>1676.049950891662</v>
       </c>
       <c r="D8" t="n">
-        <v>768.4778694261013</v>
+        <v>1240.140166066106</v>
       </c>
       <c r="E8" t="n">
-        <v>768.4778694261013</v>
+        <v>806.3654212244014</v>
       </c>
       <c r="F8" t="n">
-        <v>768.4778694261013</v>
+        <v>378.4979916336092</v>
       </c>
       <c r="G8" t="n">
-        <v>367.0800380493652</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H8" t="n">
-        <v>77.94988349258141</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I8" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K8" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L8" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M8" t="n">
-        <v>424.271832642633</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N8" t="n">
-        <v>1388.901640863328</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O8" t="n">
-        <v>2353.531449084022</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>3181.841323917418</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
-        <v>3728.340109876013</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3813.842300812907</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T8" t="n">
-        <v>3593.775073685946</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U8" t="n">
-        <v>3334.552771002963</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="V8" t="n">
-        <v>2971.935820936789</v>
+        <v>2959.634457613835</v>
       </c>
       <c r="W8" t="n">
-        <v>2567.080366347823</v>
+        <v>2959.634457613835</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.937902927134</v>
+        <v>2540.491994193146</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.651779226787</v>
+        <v>2540.491994193146</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>584.1216284838742</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>477.6651673205165</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>382.5748784670698</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>288.4544637940235</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>205.0706254101851</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>119.6855356763689</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>77.94988349258141</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>77.94988349258141</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="K9" t="n">
-        <v>77.94988349258141</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="L9" t="n">
-        <v>77.94988349258141</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="M9" t="n">
-        <v>77.94988349258141</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="N9" t="n">
-        <v>77.94988349258141</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="O9" t="n">
-        <v>921.4664784921923</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P9" t="n">
-        <v>1741.18964497139</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1741.18964497139</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1172.101498812343</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>986.7787445455367</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>831.9113087844166</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>705.4255295636374</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>928.4459205695127</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C10" t="n">
-        <v>755.8842090527377</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D10" t="n">
-        <v>590.0062162542604</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E10" t="n">
-        <v>420.2482125049976</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F10" t="n">
-        <v>243.5411584667538</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G10" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H10" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>439.2880232284068</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2676.370324352697</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T10" t="n">
-        <v>2430.490877931152</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U10" t="n">
-        <v>2152.057877184257</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V10" t="n">
-        <v>1865.102369054688</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W10" t="n">
-        <v>1593.075964640979</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.684209974392</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y10" t="n">
-        <v>1120.2645392885</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2215.458936316807</v>
+        <v>2132.205870492799</v>
       </c>
       <c r="C11" t="n">
-        <v>1777.31646350023</v>
+        <v>1694.063397676223</v>
       </c>
       <c r="D11" t="n">
-        <v>1341.406678674675</v>
+        <v>1258.153612850667</v>
       </c>
       <c r="E11" t="n">
-        <v>907.6319338329697</v>
+        <v>824.3788680089624</v>
       </c>
       <c r="F11" t="n">
-        <v>479.7645042421775</v>
+        <v>396.5114384181701</v>
       </c>
       <c r="G11" t="n">
-        <v>78.3666728654414</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H11" t="n">
-        <v>78.3666728654414</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I11" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K11" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L11" t="n">
-        <v>77.94988349258141</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M11" t="n">
-        <v>424.271832642633</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N11" t="n">
-        <v>1388.901640863328</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>2353.531449084022</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P11" t="n">
-        <v>3181.841323917418</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
-        <v>3728.340109876013</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3897.49417462907</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T11" t="n">
-        <v>3897.49417462907</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U11" t="n">
-        <v>3897.49417462907</v>
+        <v>3322.251407680009</v>
       </c>
       <c r="V11" t="n">
-        <v>3874.042548511718</v>
+        <v>2959.634457613835</v>
       </c>
       <c r="W11" t="n">
-        <v>3469.187093922751</v>
+        <v>2959.634457613835</v>
       </c>
       <c r="X11" t="n">
-        <v>3050.044630502061</v>
+        <v>2540.491994193146</v>
       </c>
       <c r="Y11" t="n">
-        <v>2641.758506801715</v>
+        <v>2132.205870492799</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>584.1216284838742</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>477.6651673205165</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>382.5748784670698</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>288.4544637940235</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>205.0706254101851</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>119.6855356763689</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>77.94988349258141</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>77.94988349258141</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="K12" t="n">
-        <v>77.94988349258141</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="L12" t="n">
-        <v>77.94988349258141</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="M12" t="n">
-        <v>77.94988349258141</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="N12" t="n">
-        <v>77.94988349258141</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="O12" t="n">
-        <v>921.4664784921923</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P12" t="n">
-        <v>1741.18964497139</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1741.18964497139</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1172.101498812343</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>986.7787445455367</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>831.9113087844166</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>705.4255295636374</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>787.4437209101934</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C13" t="n">
-        <v>614.8820093934183</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D13" t="n">
-        <v>449.004016594941</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E13" t="n">
-        <v>279.2460128456783</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>102.5389588074345</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>439.2880232284068</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2535.368124693377</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2289.488678271833</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>2011.055677524938</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>1724.100169395368</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1452.07376498166</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.682010315072</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>979.2623396291806</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1617.071309685004</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C14" t="n">
-        <v>1178.928836868427</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D14" t="n">
-        <v>743.0190520428714</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E14" t="n">
-        <v>309.2443072011666</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F14" t="n">
-        <v>309.2443072011666</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G14" t="n">
-        <v>309.2443072011666</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H14" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L14" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M14" t="n">
-        <v>424.271832642633</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N14" t="n">
-        <v>1388.901640863328</v>
+        <v>1887.539675852265</v>
       </c>
       <c r="O14" t="n">
-        <v>2353.531449084022</v>
+        <v>2794.658257936606</v>
       </c>
       <c r="P14" t="n">
-        <v>3181.841323917418</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q14" t="n">
-        <v>3728.340109876013</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R14" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3897.49417462907</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U14" t="n">
-        <v>3638.271871946087</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V14" t="n">
-        <v>3275.654921879914</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W14" t="n">
-        <v>2870.799467290947</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="X14" t="n">
-        <v>2451.657003870258</v>
+        <v>3044.980469320203</v>
       </c>
       <c r="Y14" t="n">
-        <v>2043.370880169911</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>584.1216284838742</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>477.6651673205165</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>382.5748784670698</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>288.4544637940235</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>205.0706254101851</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>119.6855356763689</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>77.94988349258141</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>77.94988349258141</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>77.94988349258141</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L15" t="n">
-        <v>77.94988349258141</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M15" t="n">
-        <v>77.94988349258141</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>1042.579691713276</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>1741.18964497139</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1741.18964497139</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1741.18964497139</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1172.101498812343</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>986.7787445455367</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>831.9113087844166</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>705.4255295636374</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>928.4459205695127</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>755.8842090527377</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>590.0062162542604</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
-        <v>420.2482125049976</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>243.5411584667538</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>77.94988349258141</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>439.2880232284068</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2676.370324352697</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2430.490877931152</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>2152.057877184257</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>1865.102369054688</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1593.075964640979</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1347.684209974392</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1120.2645392885</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>205.2000859692949</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K17" t="n">
-        <v>1039.550377927473</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L17" t="n">
-        <v>2114.610344180332</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>3271.658179390883</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,7 +5755,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L20" t="n">
         <v>306.1208027766299</v>
@@ -5782,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5995,46 +5995,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>306.1208027766281</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.168637987179</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>4648.527086152673</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>5113.042013538981</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O24" t="n">
-        <v>5113.042013538981</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6129,19 +6129,19 @@
         <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>639.1929661716164</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>507.5300178439736</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>388.1086717343196</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.168637987179</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.168637987179</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>3879.214741978675</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4634.82430489918</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4634.82430489918</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O33" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P33" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1656.801388721157</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,13 +6940,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>356.7918199602167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1431.851786213076</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
         <v>287.8657185439749</v>
@@ -7162,25 +7162,25 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
         <v>1463.16863798718</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2215.042146943947</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C41" t="n">
-        <v>1776.89967412737</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D41" t="n">
-        <v>1340.989889301815</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E41" t="n">
-        <v>907.2151444601097</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F41" t="n">
-        <v>479.3477148693175</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G41" t="n">
-        <v>77.94988349258139</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H41" t="n">
-        <v>77.94988349258139</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I41" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K41" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L41" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M41" t="n">
-        <v>424.2718326426323</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="N41" t="n">
-        <v>1388.901640863327</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O41" t="n">
-        <v>2353.531449084021</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P41" t="n">
-        <v>3181.841323917417</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q41" t="n">
-        <v>3728.340109876012</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3873.625759138858</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>3873.625759138858</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>3873.625759138858</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>3873.625759138858</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.770304549891</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X41" t="n">
-        <v>3049.627841129201</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y41" t="n">
-        <v>2641.341717428855</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>584.1216284838741</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>477.6651673205164</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>382.5748784670697</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>288.4544637940234</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>205.070625410185</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>119.6855356763689</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>77.94988349258139</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>77.94988349258139</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="K42" t="n">
-        <v>77.94988349258139</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="L42" t="n">
-        <v>77.94988349258139</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="M42" t="n">
-        <v>77.94988349258139</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="N42" t="n">
-        <v>77.94988349258139</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="O42" t="n">
-        <v>263.5547617657768</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P42" t="n">
-        <v>1083.277928244975</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>1624.01686687705</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1172.101498812342</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>986.7787445455365</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>831.9113087844165</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>705.4255295636373</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>928.4459205695126</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C43" t="n">
-        <v>755.8842090527376</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D43" t="n">
-        <v>590.0062162542603</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E43" t="n">
-        <v>420.2482125049975</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F43" t="n">
-        <v>243.5411584667537</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G43" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>439.2880232284068</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2676.370324352697</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T43" t="n">
-        <v>2430.490877931152</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U43" t="n">
-        <v>2152.057877184257</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V43" t="n">
-        <v>1865.102369054687</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W43" t="n">
-        <v>1593.075964640979</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X43" t="n">
-        <v>1347.684209974391</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y43" t="n">
-        <v>1120.2645392885</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2068.679306048035</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C44" t="n">
-        <v>1630.536833231458</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D44" t="n">
-        <v>1630.536833231458</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E44" t="n">
-        <v>1196.762088389753</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F44" t="n">
-        <v>768.8946587989612</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G44" t="n">
-        <v>367.4968274222251</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H44" t="n">
-        <v>78.36667286544139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I44" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K44" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L44" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M44" t="n">
-        <v>424.2718326426323</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N44" t="n">
-        <v>1388.901640863327</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O44" t="n">
-        <v>2353.531449084021</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P44" t="n">
-        <v>3181.841323917417</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q44" t="n">
-        <v>3728.340109876012</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R44" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>3897.494174629069</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>3727.262918242945</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>3727.262918242945</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>3322.407463653979</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="X44" t="n">
-        <v>2903.265000233289</v>
+        <v>3044.980469320203</v>
       </c>
       <c r="Y44" t="n">
-        <v>2494.978876532943</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>584.1216284838741</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>477.6651673205164</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>382.5748784670697</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>288.4544637940234</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>205.070625410185</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>119.6855356763689</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>104.013556653039</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>104.013556653039</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="K45" t="n">
-        <v>104.013556653039</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="L45" t="n">
-        <v>104.013556653039</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="M45" t="n">
-        <v>104.013556653039</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="N45" t="n">
-        <v>776.5598367506957</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="O45" t="n">
-        <v>1741.18964497139</v>
+        <v>258.9073899567783</v>
       </c>
       <c r="P45" t="n">
-        <v>1741.18964497139</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1741.18964497139</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>1741.18964497139</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1677.734207419773</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1547.555563750375</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1371.219016750343</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1172.101498812342</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>986.7787445455365</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>831.9113087844165</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>705.4255295636373</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>928.4459205695126</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>755.8842090527376</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>590.0062162542603</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>420.2482125049975</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>243.5411584667537</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>77.94988349258139</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>164.5295686572713</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>439.2880232284068</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>857.497904996368</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1316.981772177281</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1759.240575334926</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2178.909824560707</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2526.416718531049</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2694.609493395381</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2535.368124693377</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>2289.488678271833</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>2152.057877184257</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>1865.102369054687</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1593.075964640979</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1347.684209974391</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1120.2645392885</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>156.3782581120182</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M2" t="n">
-        <v>469.6822035600076</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078571</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794093</v>
+        <v>99.20147744247731</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M5" t="n">
-        <v>349.8201506566178</v>
+        <v>706.5117780691758</v>
       </c>
       <c r="N5" t="n">
-        <v>974.3735436572675</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>974.3735436572674</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>705.6666194526407</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>974.3735436572675</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>349.8201506566178</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N8" t="n">
-        <v>974.3735436572675</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O8" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M11" t="n">
-        <v>349.8201506566178</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>974.3735436572675</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>349.8201506566178</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N14" t="n">
-        <v>974.3735436572675</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O14" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>156.3782581120181</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>974.3735436572674</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>705.6666194526408</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>103.9790360591064</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9178,10 +9178,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463116</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>288.735183296505</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>483.0481905452534</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>257.1019996863001</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>349.8201506566172</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N41" t="n">
-        <v>974.3735436572673</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O41" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11305,13 +11305,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>349.8201506566172</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N44" t="n">
-        <v>974.3735436572673</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O44" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11375,7 +11375,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>679.3396768663199</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>974.3735436572673</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>369.0353499799954</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22597,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>115.4554079251757</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22764,10 +22764,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="W4" t="n">
-        <v>208.2197249473432</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>135.2181212113007</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>211.2097910679024</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -23026,22 +23026,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>325.8861391430906</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>95.65294939157434</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>77.40701559572756</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>335.7736707093327</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>57.25737353971661</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23551,13 +23551,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>201.8142751191967</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>37.71410486740379</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.383630545736</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>202.2268965983276</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>59.18562374269183</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>88.10113583389079</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>201.8142751191967</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>439648.5969952767</v>
+        <v>539549.4129532858</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>562878.3587411983</v>
+        <v>539549.4129532858</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>562878.3587411983</v>
+        <v>539549.4129532858</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>562878.3587411981</v>
+        <v>539549.4129532858</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>562878.3587411983</v>
+        <v>539549.4129532858</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>684914.859378558</v>
+        <v>684914.8593785581</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>562878.3587411981</v>
+        <v>539549.4129532858</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>562878.3587411982</v>
+        <v>539549.4129532858</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152186.0528060574</v>
+        <v>186767.1044838298</v>
       </c>
       <c r="C2" t="n">
-        <v>194842.5087950302</v>
+        <v>186767.1044838297</v>
       </c>
       <c r="D2" t="n">
-        <v>194842.5087950302</v>
+        <v>186767.1044838298</v>
       </c>
       <c r="E2" t="n">
-        <v>194842.5087950302</v>
+        <v>186767.1044838297</v>
       </c>
       <c r="F2" t="n">
-        <v>194842.5087950302</v>
+        <v>186767.1044838298</v>
       </c>
       <c r="G2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="H2" t="n">
         <v>237085.9128618086</v>
       </c>
       <c r="I2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="J2" t="n">
         <v>237085.9128618085</v>
@@ -26352,10 +26352,10 @@
         <v>237085.9128618085</v>
       </c>
       <c r="O2" t="n">
-        <v>194842.5087950301</v>
+        <v>186767.1044838298</v>
       </c>
       <c r="P2" t="n">
-        <v>194842.5087950302</v>
+        <v>186767.1044838298</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
-        <v>99136.93345537226</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>83290.85735690576</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
-        <v>78975.51648973268</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.5868204130782</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="C4" t="n">
-        <v>662.6620031800503</v>
+        <v>635.1974440833579</v>
       </c>
       <c r="D4" t="n">
-        <v>662.6620031800504</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="E4" t="n">
-        <v>662.6620031800504</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="F4" t="n">
-        <v>662.6620031800504</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826023</v>
@@ -26456,10 +26456,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>662.6620031800503</v>
+        <v>635.1974440833578</v>
       </c>
       <c r="P4" t="n">
-        <v>662.6620031800502</v>
+        <v>635.1974440833579</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>92869.51145436187</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>92869.51145436187</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>59241.91145436186</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>59241.91145436186</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26505,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>59241.91145436185</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>59241.91145436185</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146243.7571601583</v>
+        <v>-210575.3454013104</v>
       </c>
       <c r="C6" t="n">
-        <v>2173.401882116028</v>
+        <v>96491.62488540736</v>
       </c>
       <c r="D6" t="n">
-        <v>101310.3353374883</v>
+        <v>96491.62488540739</v>
       </c>
       <c r="E6" t="n">
-        <v>134937.9353374883</v>
+        <v>130119.2248854074</v>
       </c>
       <c r="F6" t="n">
-        <v>134937.9353374883</v>
+        <v>130119.2248854074</v>
       </c>
       <c r="G6" t="n">
-        <v>75270.48450832767</v>
+        <v>59325.07389057878</v>
       </c>
       <c r="H6" t="n">
-        <v>158561.3418652334</v>
+        <v>158538.1175258508</v>
       </c>
       <c r="I6" t="n">
-        <v>158561.3418652334</v>
+        <v>158538.1175258508</v>
       </c>
       <c r="J6" t="n">
-        <v>-16090.00685247275</v>
+        <v>-81201.41206089195</v>
       </c>
       <c r="K6" t="n">
-        <v>79585.82537550075</v>
+        <v>158538.1175258508</v>
       </c>
       <c r="L6" t="n">
-        <v>158561.3418652334</v>
+        <v>158538.1175258508</v>
       </c>
       <c r="M6" t="n">
-        <v>158561.3418652334</v>
+        <v>158538.1175258508</v>
       </c>
       <c r="N6" t="n">
-        <v>158561.3418652334</v>
+        <v>158538.1175258508</v>
       </c>
       <c r="O6" t="n">
-        <v>134937.9353374882</v>
+        <v>130119.2248854074</v>
       </c>
       <c r="P6" t="n">
-        <v>134937.9353374883</v>
+        <v>130119.2248854074</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>974.3735436572675</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>974.3735436572675</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>974.3735436572675</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>974.3735436572675</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>974.3735436572673</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>974.3735436572673</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>306.8583370494105</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>303.8869597274778</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
-        <v>306.8583370494105</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
-        <v>306.8583370494105</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>303.8869597274778</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>156.3782581120182</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M2" t="n">
-        <v>469.6822035600076</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078571</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794093</v>
+        <v>99.20147744247731</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34871,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.908332551295</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M5" t="n">
-        <v>349.8201506566178</v>
+        <v>706.5117780691758</v>
       </c>
       <c r="N5" t="n">
-        <v>974.3735436572675</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>974.3735436572674</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>705.6666194526407</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>974.3735436572675</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>349.8201506566178</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N8" t="n">
-        <v>974.3735436572675</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O8" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="M11" t="n">
-        <v>349.8201506566178</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>974.3735436572675</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35655,16 +35655,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>349.8201506566178</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N14" t="n">
-        <v>974.3735436572675</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="O14" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>156.3782581120181</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>974.3735436572674</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>705.6666194526408</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>103.9790360591064</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35898,10 +35898,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463116</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>288.735183296505</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37086,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>483.0481905452534</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>257.1019996863001</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37788,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>349.8201506566172</v>
+        <v>235.983012910952</v>
       </c>
       <c r="N41" t="n">
-        <v>974.3735436572673</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O41" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -37943,10 +37943,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38025,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>349.8201506566172</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N44" t="n">
-        <v>974.3735436572673</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O44" t="n">
-        <v>974.3735436572674</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38095,7 +38095,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>161.1527324371087</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>679.3396768663199</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>974.3735436572673</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,10 +38180,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
